--- a/Data/EC/NIT-9017050692.xlsx
+++ b/Data/EC/NIT-9017050692.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA2E6DC-28A5-42EE-A2D1-41E5C62C27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB1AB2D-3393-4028-B89A-9A9C7642E3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{614F534E-6119-4CC6-BDAD-1A65A9754C63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{482212C1-F1A9-49EC-9C0C-7675A884FEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,19 +65,25 @@
     <t>CC</t>
   </si>
   <si>
+    <t>79297150</t>
+  </si>
+  <si>
+    <t>EDWIN JAVIER MENDOZA LANDAETA</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
     <t>73090068</t>
   </si>
   <si>
     <t>CELEDONIO PUELLO SARMIENTO</t>
   </si>
   <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>1128050860</t>
-  </si>
-  <si>
-    <t>ANGEL CUSTODIO MARIMON MENDOZA</t>
+    <t>73205222</t>
+  </si>
+  <si>
+    <t>ERICK EVANS BUSTAMANTE</t>
   </si>
   <si>
     <t>84033246</t>
@@ -92,10 +98,10 @@
     <t>LEANDRO PAJARO CABARCAS</t>
   </si>
   <si>
-    <t>1049828277</t>
-  </si>
-  <si>
-    <t>SAIR JOSE MEDINA UTRIA</t>
+    <t>1102799537</t>
+  </si>
+  <si>
+    <t>JULIO GUSTAVO SILGADO LACAYO</t>
   </si>
   <si>
     <t>19890430</t>
@@ -110,10 +116,16 @@
     <t>LUIS ANGEL FUENTES CONTRERAS</t>
   </si>
   <si>
-    <t>1049942444</t>
-  </si>
-  <si>
-    <t>JOSE ANGEL CARDONA ALVAREZ</t>
+    <t>1051442384</t>
+  </si>
+  <si>
+    <t>PIERO ARIZA CASTRO</t>
+  </si>
+  <si>
+    <t>1047454116</t>
+  </si>
+  <si>
+    <t>JUAN DAVID PEREZ PAJARO</t>
   </si>
   <si>
     <t>1101453428</t>
@@ -122,27 +134,18 @@
     <t>YASER ROBLES MARTINEZ</t>
   </si>
   <si>
-    <t>73226011</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS PEREZ PEÑARANDA</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1049928611</t>
-  </si>
-  <si>
-    <t>MIGUEL ANTONIO MALDONADO DIAZ</t>
-  </si>
-  <si>
     <t>1002307140</t>
   </si>
   <si>
     <t>CAMILO ANDRES OROZCO PEREZ</t>
   </si>
   <si>
+    <t>1002257837</t>
+  </si>
+  <si>
+    <t>NEIDER LUIS FUENTES CONTRERAS</t>
+  </si>
+  <si>
     <t>3817904</t>
   </si>
   <si>
@@ -155,25 +158,16 @@
     <t>CARLOS ANDRES MALDONADO ZUÑIGA</t>
   </si>
   <si>
-    <t>1002070919</t>
-  </si>
-  <si>
-    <t>NILSON ENRIQUE SARMIENTO UTRIA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
     <t>1044927812</t>
   </si>
   <si>
     <t>EDGAR DUVAN BALLESTEROS GONZALEZ</t>
   </si>
   <si>
-    <t>1044932727</t>
-  </si>
-  <si>
-    <t>LEONARDO FABIO JAIME PEREZ</t>
+    <t>11166018</t>
+  </si>
+  <si>
+    <t>VICTOR DE LA HOZ GUERRA</t>
   </si>
   <si>
     <t>73353431</t>
@@ -284,7 +278,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +293,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +493,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +537,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +593,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B557EC-BBBC-96A0-EF03-0BC159C6FBF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9CD2BE-4987-DCC3-8393-D68FF3AB3BA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4064680-A619-42E5-99B4-D10F687589E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C1C463-66E5-4371-88DB-DC98412B4A9C}">
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -975,7 +969,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1020,7 +1014,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1052,12 +1046,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1066380</v>
+        <v>1081860</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1068,17 +1062,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5">
         <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1105,13 +1099,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1131,7 +1125,7 @@
         <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1154,7 +1148,7 @@
         <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>1600000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1177,7 +1171,7 @@
         <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1200,7 +1194,7 @@
         <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1220,10 +1214,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1269,7 +1263,7 @@
         <v>56940</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1332,13 +1326,13 @@
         <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G25" s="18">
-        <v>1050000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1349,10 +1343,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>11</v>
@@ -1372,10 +1366,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>11</v>
@@ -1395,11 +1389,11 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="E28" s="16" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1401,7 @@
         <v>56940</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1418,10 +1412,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>11</v>
@@ -1441,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
         <v>56940</v>
@@ -1464,10 +1458,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>11</v>
@@ -1476,7 +1470,7 @@
         <v>56940</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1487,19 +1481,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
         <v>56940</v>
       </c>
       <c r="G32" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1510,10 +1504,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>11</v>
@@ -1533,10 +1527,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>11</v>
@@ -1545,7 +1539,7 @@
         <v>56940</v>
       </c>
       <c r="G34" s="24">
-        <v>1250000</v>
+        <v>1423500</v>
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
@@ -1553,22 +1547,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39" s="32"/>
       <c r="H39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" s="32"/>
       <c r="H40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
